--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_524.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_524.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32825-d78878-Reviews-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Anaheim-Stadium-Orange.h996133.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_524.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_524.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,486 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r540084653-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>32825</t>
+  </si>
+  <si>
+    <t>78878</t>
+  </si>
+  <si>
+    <t>540084653</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Don’t stay here</t>
+  </si>
+  <si>
+    <t>You know when someone on the street asks you for some $ to stay at a motel room for the night? This is the kind of place they choose. Instead of listing 10 cons, I can just say a homeless encapment by the river bed a few feet away.... Even if its just for one night, just don’t. You are worth more than this place. Customer service was great though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r505252337-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>505252337</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Did the trick</t>
+  </si>
+  <si>
+    <t>In town for the Angels/Red Sox game and just needed a place to lay my head. The room was clean, convenient and quiet (stay away from the highway), ask for a room near the riverbed. If you want a basic clean room, this is a good place to stay.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r489219417-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>489219417</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Keep driving! Keep clicking! Don't stay here!!</t>
+  </si>
+  <si>
+    <t>Saddest Motel 6 I've been to in years, especially as this area gets swankier every time I drive through.Key card had to be reactivated EVERY TIME I needed it, not pleasant walking through the sketchy parking lot at 1am after a Disney day to make my card work. Housekeeping skipped me after first night, requested them to come by when I left in afternoon after a check in. They never did.The water that came out of the faucet smelled like BURNT HAIR. I don't even want to know how, why or what it was. Brushed teeth with bottled water for remainder of stay.Outdated, cramped, thin walls, bare bones, LOUD security (I appreciate security though! Especially in that lot...).  When was the last time you saw a 24 inch tube television? 1999? For me, yesterday. At this hotel. And the picture wasn't even clear! The days of fuzzy tv are over folks. I will NOT be returning the only recent "update" this seems to have received on the Motel 6 theme is the updated "comforter" (really, it's a double thick sheet with the orange stripe at the bottom). I should have paid the extra $40 a night over the regular price to stay at the Motel 6 Maingate on Disney Way. That's what I get for traveling on a holiday weekend I guess. Gouged into a shizzhole. This was NOT a $90 a night experience. Plain and simple.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Saddest Motel 6 I've been to in years, especially as this area gets swankier every time I drive through.Key card had to be reactivated EVERY TIME I needed it, not pleasant walking through the sketchy parking lot at 1am after a Disney day to make my card work. Housekeeping skipped me after first night, requested them to come by when I left in afternoon after a check in. They never did.The water that came out of the faucet smelled like BURNT HAIR. I don't even want to know how, why or what it was. Brushed teeth with bottled water for remainder of stay.Outdated, cramped, thin walls, bare bones, LOUD security (I appreciate security though! Especially in that lot...).  When was the last time you saw a 24 inch tube television? 1999? For me, yesterday. At this hotel. And the picture wasn't even clear! The days of fuzzy tv are over folks. I will NOT be returning the only recent "update" this seems to have received on the Motel 6 theme is the updated "comforter" (really, it's a double thick sheet with the orange stripe at the bottom). I should have paid the extra $40 a night over the regular price to stay at the Motel 6 Maingate on Disney Way. That's what I get for traveling on a holiday weekend I guess. Gouged into a shizzhole. This was NOT a $90 a night experience. Plain and simple.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r362808750-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>362808750</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>Its ok if you have to go there</t>
+  </si>
+  <si>
+    <t>The Room was either freezing or way to hot The water pressure in the bathroom was horrible.  The bed was comfortable once you got the temperature regulated. The room smelled sour and you only had access to certain areas of the property at limited times</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r352973811-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>352973811</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY, TAKE YOUR BUSINESS ELSE WHERE!!!!</t>
+  </si>
+  <si>
+    <t>We had poooor maid service. The staff and management is blaming me for having lice when that is false. When I checked in the room someone left their lice shampoo treatment in the room and now I am FIGHTING with them on this matter. I NEVER had head lice when I checked in and now cause of this issue I am force to protect myself and treat my hair. I am also being blamed for cutting my hair and leaving it on the floor of the room which is false. Management is also refusing to reimburse me my money back for at least one night for all of the stress that they are causing me on this issue. How do they NOT know if someone else before me and or one of their maid service personnel had the lice and is just trying to blame it on the last person who checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We had poooor maid service. The staff and management is blaming me for having lice when that is false. When I checked in the room someone left their lice shampoo treatment in the room and now I am FIGHTING with them on this matter. I NEVER had head lice when I checked in and now cause of this issue I am force to protect myself and treat my hair. I am also being blamed for cutting my hair and leaving it on the floor of the room which is false. Management is also refusing to reimburse me my money back for at least one night for all of the stress that they are causing me on this issue. How do they NOT know if someone else before me and or one of their maid service personnel had the lice and is just trying to blame it on the last person who checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r352757406-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>352757406</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>well. it was not great, however there are some friendly staff members and i feel overall it was pleasant.</t>
+  </si>
+  <si>
+    <t>Hello. I stayed here for about a week in lieu of an emergency situation; on the last day of my 7 day stay, one staff member was very hostile and and extremely rude. I give them a C due to the rude customer service, but they get an A+ for room service. I suggest anger management and individual therapy for the female receptionist during night shift. I feel bad for her.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Anaheim Stadium - Orange, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Hello. I stayed here for about a week in lieu of an emergency situation; on the last day of my 7 day stay, one staff member was very hostile and and extremely rude. I give them a C due to the rude customer service, but they get an A+ for room service. I suggest anger management and individual therapy for the female receptionist during night shift. I feel bad for her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r337225856-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>337225856</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>it was relaxing</t>
+  </si>
+  <si>
+    <t>i like it i thought the TV was a bit outdated and it could use a mini refrigerator and a microwave but overall not bad at all. right next to some restaurants if you get hungry and right around the corner from the block at orange if you get bored.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r328987075-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>328987075</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>ITS STARTING TO FALL APART</t>
+  </si>
+  <si>
+    <t>The rates were high $75+. And the room was "less-than".  THe furnishings were from yester-year. Stained pillows. The shower floor could've stood a re-do. THe product sold (the room) does not equate to the high nightly rates. The Nightclerk Patrick, is very helpful and professional. However the women in the day, are quite rude &amp; snarky. Stay somewhere else:</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r310828941-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>310828941</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; Serviceable Motel</t>
+  </si>
+  <si>
+    <t>Clean and friendly Motel Six with easy access to freeways.  Adjacent to a Dennys Restaurant and less than a mile walk from the Angels Stadium of Anaheim.  I wouldnt hesitate to travellers on a budget and fantastic for baseball fans.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r255397659-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>255397659</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>A VERY NICE/ACCEPTABLE MOTEL 6</t>
+  </si>
+  <si>
+    <t>Was here twice this month. Once in the front building. Once in the courtyard/pool building. The rooms are in good repair, and no objectional smells. A quiet property. Although next to busy I-5. A Denny's (all refurbished) next door. An ideal location. sandwiched between the SR-22/Santa Ana River/I-5. The employees were helpful. would stay here again for sure. There is nothing wrong here. Some of the "maids" have 'depressed-looks" on their faces. (If I worked my butt off, for little apppreciation) I probably would be kinda cranky too.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r230943157-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>230943157</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>a Little Spartan but The Price was Right</t>
+  </si>
+  <si>
+    <t>I traveled to Orange CA for eye surgery recently and decided the Motel 6, just off Interstate 5, in Orange CA, would be a good location.  The price was very low, the surrounding area was very acceptable, and their were several restaurants within easy walking distance.  Pros:Nice Pool AreaFriendly StaffClean Roomample parkingProximity to HighwayConsDaily WIFI cost 2.99Coffee only available in hotel officeRoom very spartan with no dresserOlder style TV with limited channelsTook a very long time to get hot water running at the sinkOverall a good value considering the price.  I would use it again if needed.Overall a very good value</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r209583780-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>209583780</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Grounds Need to Be Cleaned Up</t>
+  </si>
+  <si>
+    <t>Although, this local is ideal with the 55freeway and 57freeway off of Chapman Exit.  The entire area needs to be cleaned up.. I wouldnt pay any more than 50.00 for the rooms here.. All rooms are outdated with stains on carpet, towels are clean but so rough and cheap to the touch, and there are no blowdryers that seem to work.. When I asked for a blowdryer I was told no twice that they are out.. Well then replace the broken one's in the room at the least...  Now, the staff is friendly and great but I wouldnt recommend staying here if you are looking for a quiet cozy place of rest. The room keys were also another issue.  I had to continually get a new one redone..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Although, this local is ideal with the 55freeway and 57freeway off of Chapman Exit.  The entire area needs to be cleaned up.. I wouldnt pay any more than 50.00 for the rooms here.. All rooms are outdated with stains on carpet, towels are clean but so rough and cheap to the touch, and there are no blowdryers that seem to work.. When I asked for a blowdryer I was told no twice that they are out.. Well then replace the broken one's in the room at the least...  Now, the staff is friendly and great but I wouldnt recommend staying here if you are looking for a quiet cozy place of rest. The room keys were also another issue.  I had to continually get a new one redone..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r175694339-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>175694339</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Discrimination for sexual preferency</t>
+  </si>
+  <si>
+    <t>On Saturday August 31, the security in this Motel prevent a friend from visit me. He expressed that the rooms in the Motel are for man and women. I guess that if I am paying for a room, I have the right to receive whoever I want in my room if I don't interfere with the comfort of other guess. Definitely, I don't recommend this hotel to nobody in the gay and lesbian community.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r173104181-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>173104181</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Just a rest stop</t>
+  </si>
+  <si>
+    <t>If you're looking just for a place to spend the night, look at this place as your last option, I know is California, but no free wifi, no breakfast, rooms outdated, I wouldn't recommend this place to anyoneMoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Anaheim Stadium - Orange, responded to this reviewResponded August 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2013</t>
+  </si>
+  <si>
+    <t>If you're looking just for a place to spend the night, look at this place as your last option, I know is California, but no free wifi, no breakfast, rooms outdated, I wouldn't recommend this place to anyoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r155556579-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>155556579</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Stayed here for a month.  Did not have any complaints except for the fact of the people checking in between 12-3am were extremely loud. Thats what you have to expect when your staying right next to any motel office.  We did get a brand new bed which was nice.  Room was clean.  Housekeeping did a good job with the services.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r136184294-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>136184294</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>Great Price!!</t>
+  </si>
+  <si>
+    <t>I will admit its not perfect but what do these other people think its cheap!!! u pay for what u get. I have stayed here a few times, yeah the carpet needs cleaning &amp; some blankets replaced. But i get to stay w/ my dog and not pay any extra or an outrageous deposit!! the soon has always been clean and they r there when u ask for service. staff is nice &amp; helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r118900495-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>118900495</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>NASTY NASTY NASTY</t>
+  </si>
+  <si>
+    <t>We had to stay here b/c there was no rooms at any Hotel on Harbor blvd next to disneyland, I guess it was gay day at disneyland. Well, when i got to the room i was already mad because i have never stayed at a Motel 6, We always stay at Hilton, Four Seasons etc. I had to use the bathroom so i got up, open the bathroom door to find a lot roaches in the tub and by the toilet.... I ran back to bed and woke up my husband b/c I jumped on him. I called the front desk and the girl was really sorry we had to experience that nightmare.  She refunded us, so we drove back by disneyland to our luck someone had cancel at Hilton....  :DDo not stay here, only if you want to take back roaches home..... Pros:1. Really cheap $55.00 (we had never paid that for a room)Cons:1. Roaches everywhere2. Dirty3. Smell bad4. Sheets are dirtyI wouldn't even recommend it to my enemy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>We had to stay here b/c there was no rooms at any Hotel on Harbor blvd next to disneyland, I guess it was gay day at disneyland. Well, when i got to the room i was already mad because i have never stayed at a Motel 6, We always stay at Hilton, Four Seasons etc. I had to use the bathroom so i got up, open the bathroom door to find a lot roaches in the tub and by the toilet.... I ran back to bed and woke up my husband b/c I jumped on him. I called the front desk and the girl was really sorry we had to experience that nightmare.  She refunded us, so we drove back by disneyland to our luck someone had cancel at Hilton....  :DDo not stay here, only if you want to take back roaches home..... Pros:1. Really cheap $55.00 (we had never paid that for a room)Cons:1. Roaches everywhere2. Dirty3. Smell bad4. Sheets are dirtyI wouldn't even recommend it to my enemy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r116703174-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>116703174</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>Love/Hate relationship with this motel</t>
+  </si>
+  <si>
+    <t>Stayed here twice past two years in summer and it is ideally located near Angels Stadium for baseball, also has an excellent pool area....very relaxing in center court of the motel.Two major drawbacks for the place, the neighborhood  is a bit seedy at night, and the room was not as clean as it could be. I would stay again if going to an Angels game, but can give only 3 stars because of the mentioned drawbacks.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r20961009-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>20961009</t>
+  </si>
+  <si>
+    <t>10/17/2008</t>
+  </si>
+  <si>
+    <t>Wrost place ever</t>
+  </si>
+  <si>
+    <t>This hotel should be in a class by itself and even Motel 6 should be ashamed its under their umbrella. So many ladies of the night working the truckers who all seemed to park and idle their trucks most the night near the #100 rooms. That the thought of allowing my child to even run out to get ice concerned me. The room was really bad from poor carpets to poor bedding (room 103) i must say thou that the shower had a curved curtain and a Kramer type shower head so no saving water here. The parking lot was so shady i almost wanted to pull my car into the room so it might be safe. I did empty the car of everything i wanted to keep as just to many undesirables drifting around the lot. Never and i mean never would i ever book this room again even if prices were rolled back to 1960 prices of $6.00MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>This hotel should be in a class by itself and even Motel 6 should be ashamed its under their umbrella. So many ladies of the night working the truckers who all seemed to park and idle their trucks most the night near the #100 rooms. That the thought of allowing my child to even run out to get ice concerned me. The room was really bad from poor carpets to poor bedding (room 103) i must say thou that the shower had a curved curtain and a Kramer type shower head so no saving water here. The parking lot was so shady i almost wanted to pull my car into the room so it might be safe. I did empty the car of everything i wanted to keep as just to many undesirables drifting around the lot. Never and i mean never would i ever book this room again even if prices were rolled back to 1960 prices of $6.00More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r15758663-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>15758663</t>
+  </si>
+  <si>
+    <t>05/07/2008</t>
+  </si>
+  <si>
+    <t>disgusting place</t>
+  </si>
+  <si>
+    <t>I stayed with my wife on room 131 on may '08 and after suffering all the bad stuff that you can read on the other reviews (hair on bed, awfull smell, etc) I found wet blood spots on the carpet!!! (I felt it when stepped on it), I washed my feet as much as I could and went for a refund immediatly after telling some things to the clerk.I will never get close to a motel 6 again in my life, it's unbelievable that these kind of places exist in the USA (just for the record I must say that I've seen a lot of not-very-nice places 'cause I'm from a so-called third world country but this was way far worse than other dirty places I've seen).STAY AWAY FROM THEM!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I stayed with my wife on room 131 on may '08 and after suffering all the bad stuff that you can read on the other reviews (hair on bed, awfull smell, etc) I found wet blood spots on the carpet!!! (I felt it when stepped on it), I washed my feet as much as I could and went for a refund immediatly after telling some things to the clerk.I will never get close to a motel 6 again in my life, it's unbelievable that these kind of places exist in the USA (just for the record I must say that I've seen a lot of not-very-nice places 'cause I'm from a so-called third world country but this was way far worse than other dirty places I've seen).STAY AWAY FROM THEM!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r14589128-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>14589128</t>
+  </si>
+  <si>
+    <t>03/27/2008</t>
+  </si>
+  <si>
+    <t>Very Lousy</t>
+  </si>
+  <si>
+    <t>Very bad experience. Requested a smoke free room and got the opposite. Joined a long line of disgruntled patrons to complain. Complaints fell upon deaf ears. Bought a giant bottle of Febreeze and tried to surveive the nite.  We had booked 3 nights after one we moved on. This place should not be allowed to sell itself through Motel 6 it is way below any standard.  STAY AWAY!</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r7540659-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>7540659</t>
+  </si>
+  <si>
+    <t>05/01/2007</t>
+  </si>
+  <si>
+    <t>Never going back</t>
+  </si>
+  <si>
+    <t>The blanket on my bed was disgusting.  Full of human hairs and worse (use your imagination).  I immediatly requested  a clean blanket but, despite assurances, my request was ignored.  I kicked the blanket  and bedspread off with my shoes - no way was I going to get near them .  The sheets were clean and by sleeping in my clothes I was able  get some rest but I will never, ever stay at a Motel 6 again.  I will probably have nightmares for some time to come.</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r6320166-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>6320166</t>
+  </si>
+  <si>
+    <t>12/02/2006</t>
+  </si>
+  <si>
+    <t>It's CHEAP,what can you expect</t>
+  </si>
+  <si>
+    <t>Bare bones motel 6.Nothing new, nothing nice, nothing pretty, nothing nothing.  A room with a bed and bath room.  For the price, it was exactly what you paid for.  If your looking for a place to shower and sleep, then this is it.  It's 5 minutes from Disneyland, there is a Denny's in the same location.  If you drive down west on Chapman, you'll find tons of shops, Walgreens, Target, Starbucks, etc.  So, you're very close to the shops.  I don't think we will stay here again, but if youre on a serious budget, this is what $60.00 will get you.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r3356159-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>3356159</t>
+  </si>
+  <si>
+    <t>04/12/2005</t>
+  </si>
+  <si>
+    <t>Sadly disappointed!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed one night at this Motel 6 in Orange.  I had booked the room for one night 3 months in advance for a first floor room. It was the last night of a cross country trip and when we got there we were tired andworn out,, We were told they did NOT have a first floor room but DID have one room available for us on the second floor which was newly remodeled. After driving all day thru bad weather and horrendous traffic we just wanted to settle in for a nights rest .. The room was on the second floor in the corner, right by the stairs.  The window faced the Denny's Restaurant and motel parking lot. The property runs closely along side the # 5 freeway.  As soon as we opened the door we were hit with an overpowering stong smell of fresh paint and the   noise. Between the constant din of freeway sounds, parking lot and people noises, it was not a good nights rest. The curtains did not hang properly and there were not enough towels for an evening and morning shower for two people. There are other reasonably priced, conveniently located motels in the area, who honor reservation requests and do not include constant round the clock noise. Book one of those, you won't be sorry!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed one night at this Motel 6 in Orange.  I had booked the room for one night 3 months in advance for a first floor room. It was the last night of a cross country trip and when we got there we were tired andworn out,, We were told they did NOT have a first floor room but DID have one room available for us on the second floor which was newly remodeled. After driving all day thru bad weather and horrendous traffic we just wanted to settle in for a nights rest .. The room was on the second floor in the corner, right by the stairs.  The window faced the Denny's Restaurant and motel parking lot. The property runs closely along side the # 5 freeway.  As soon as we opened the door we were hit with an overpowering stong smell of fresh paint and the   noise. Between the constant din of freeway sounds, parking lot and people noises, it was not a good nights rest. The curtains did not hang properly and there were not enough towels for an evening and morning shower for two people. There are other reasonably priced, conveniently located motels in the area, who honor reservation requests and do not include constant round the clock noise. Book one of those, you won't be sorry!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1128,1536 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_524.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_524.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>fjgonzales</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>You know when someone on the street asks you for some $ to stay at a motel room for the night? This is the kind of place they choose. Instead of listing 10 cons, I can just say a homeless encapment by the river bed a few feet away.... Even if its just for one night, just don’t. You are worth more than this place. Customer service was great though.</t>
   </si>
   <si>
+    <t>TravelAgentTLV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r505252337-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Laurel C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r489219417-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>Saddest Motel 6 I've been to in years, especially as this area gets swankier every time I drive through.Key card had to be reactivated EVERY TIME I needed it, not pleasant walking through the sketchy parking lot at 1am after a Disney day to make my card work. Housekeeping skipped me after first night, requested them to come by when I left in afternoon after a check in. They never did.The water that came out of the faucet smelled like BURNT HAIR. I don't even want to know how, why or what it was. Brushed teeth with bottled water for remainder of stay.Outdated, cramped, thin walls, bare bones, LOUD security (I appreciate security though! Especially in that lot...).  When was the last time you saw a 24 inch tube television? 1999? For me, yesterday. At this hotel. And the picture wasn't even clear! The days of fuzzy tv are over folks. I will NOT be returning the only recent "update" this seems to have received on the Motel 6 theme is the updated "comforter" (really, it's a double thick sheet with the orange stripe at the bottom). I should have paid the extra $40 a night over the regular price to stay at the Motel 6 Maingate on Disney Way. That's what I get for traveling on a holiday weekend I guess. Gouged into a shizzhole. This was NOT a $90 a night experience. Plain and simple.More</t>
   </si>
   <si>
+    <t>Todd T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r362808750-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>sheren m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r352973811-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>We had poooor maid service. The staff and management is blaming me for having lice when that is false. When I checked in the room someone left their lice shampoo treatment in the room and now I am FIGHTING with them on this matter. I NEVER had head lice when I checked in and now cause of this issue I am force to protect myself and treat my hair. I am also being blamed for cutting my hair and leaving it on the floor of the room which is false. Management is also refusing to reimburse me my money back for at least one night for all of the stress that they are causing me on this issue. How do they NOT know if someone else before me and or one of their maid service personnel had the lice and is just trying to blame it on the last person who checked out.More</t>
   </si>
   <si>
+    <t>Booker T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r352757406-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Hello. I stayed here for about a week in lieu of an emergency situation; on the last day of my 7 day stay, one staff member was very hostile and and extremely rude. I give them a C due to the rude customer service, but they get an A+ for room service. I suggest anger management and individual therapy for the female receptionist during night shift. I feel bad for her.More</t>
   </si>
   <si>
+    <t>ariusc2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r337225856-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Aerovergalineas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r328987075-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Mojave69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r310828941-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>BeawChan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r230943157-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Taliana B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r209583780-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>Although, this local is ideal with the 55freeway and 57freeway off of Chapman Exit.  The entire area needs to be cleaned up.. I wouldnt pay any more than 50.00 for the rooms here.. All rooms are outdated with stains on carpet, towels are clean but so rough and cheap to the touch, and there are no blowdryers that seem to work.. When I asked for a blowdryer I was told no twice that they are out.. Well then replace the broken one's in the room at the least...  Now, the staff is friendly and great but I wouldnt recommend staying here if you are looking for a quiet cozy place of rest. The room keys were also another issue.  I had to continually get a new one redone..More</t>
   </si>
   <si>
+    <t>cubano14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r175694339-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>MColin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r173104181-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>If you're looking just for a place to spend the night, look at this place as your last option, I know is California, but no free wifi, no breakfast, rooms outdated, I wouldn't recommend this place to anyoneMore</t>
   </si>
   <si>
+    <t>JCStolz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r155556579-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -459,6 +501,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>ak165</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r136184294-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -474,6 +519,9 @@
     <t>I will admit its not perfect but what do these other people think its cheap!!! u pay for what u get. I have stayed here a few times, yeah the carpet needs cleaning &amp; some blankets replaced. But i get to stay w/ my dog and not pay any extra or an outrageous deposit!! the soon has always been clean and they r there when u ask for service. staff is nice &amp; helpful.</t>
   </si>
   <si>
+    <t>Nina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r118900495-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -495,6 +543,9 @@
     <t>We had to stay here b/c there was no rooms at any Hotel on Harbor blvd next to disneyland, I guess it was gay day at disneyland. Well, when i got to the room i was already mad because i have never stayed at a Motel 6, We always stay at Hilton, Four Seasons etc. I had to use the bathroom so i got up, open the bathroom door to find a lot roaches in the tub and by the toilet.... I ran back to bed and woke up my husband b/c I jumped on him. I called the front desk and the girl was really sorry we had to experience that nightmare.  She refunded us, so we drove back by disneyland to our luck someone had cancel at Hilton....  :DDo not stay here, only if you want to take back roaches home..... Pros:1. Really cheap $55.00 (we had never paid that for a room)Cons:1. Roaches everywhere2. Dirty3. Smell bad4. Sheets are dirtyI wouldn't even recommend it to my enemy.More</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r116703174-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -516,6 +567,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Chip&amp;AChair</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r20961009-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -537,6 +591,9 @@
     <t>This hotel should be in a class by itself and even Motel 6 should be ashamed its under their umbrella. So many ladies of the night working the truckers who all seemed to park and idle their trucks most the night near the #100 rooms. That the thought of allowing my child to even run out to get ice concerned me. The room was really bad from poor carpets to poor bedding (room 103) i must say thou that the shower had a curved curtain and a Kramer type shower head so no saving water here. The parking lot was so shady i almost wanted to pull my car into the room so it might be safe. I did empty the car of everything i wanted to keep as just to many undesirables drifting around the lot. Never and i mean never would i ever book this room again even if prices were rolled back to 1960 prices of $6.00More</t>
   </si>
   <si>
+    <t>lazym0nkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r15758663-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -558,6 +615,9 @@
     <t>I stayed with my wife on room 131 on may '08 and after suffering all the bad stuff that you can read on the other reviews (hair on bed, awfull smell, etc) I found wet blood spots on the carpet!!! (I felt it when stepped on it), I washed my feet as much as I could and went for a refund immediatly after telling some things to the clerk.I will never get close to a motel 6 again in my life, it's unbelievable that these kind of places exist in the USA (just for the record I must say that I've seen a lot of not-very-nice places 'cause I'm from a so-called third world country but this was way far worse than other dirty places I've seen).STAY AWAY FROM THEM!!!More</t>
   </si>
   <si>
+    <t>blackcat21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r14589128-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -576,6 +636,9 @@
     <t>July 2006</t>
   </si>
   <si>
+    <t>Joan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r7540659-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -594,6 +657,9 @@
     <t>May 2007</t>
   </si>
   <si>
+    <t>Gigipingon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r6320166-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
   </si>
   <si>
@@ -610,6 +676,9 @@
   </si>
   <si>
     <t>November 2006</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78878-r3356159-Motel_6_Anaheim_Stadium_Orange-Orange_California.html</t>
@@ -1132,34 +1201,38 @@
       <c r="A2" t="n">
         <v>11159</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1178,50 +1251,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11159</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1241,50 +1318,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11159</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1302,50 +1383,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11159</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1365,50 +1450,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11159</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1426,50 +1515,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11159</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1487,56 +1580,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11159</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1556,50 +1653,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11159</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1617,50 +1718,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11159</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1678,50 +1783,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11159</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1739,50 +1848,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11159</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1802,50 +1915,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11159</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1869,50 +1986,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11159</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1936,50 +2057,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11159</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2001,56 +2126,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11159</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2074,41 +2203,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11159</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
@@ -2137,50 +2270,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11159</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2204,50 +2341,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11159</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2267,50 +2408,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11159</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2334,50 +2479,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11159</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2401,50 +2550,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11159</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
         <v>182</v>
-      </c>
-      <c r="K22" t="s">
-        <v>183</v>
-      </c>
-      <c r="L22" t="s">
-        <v>184</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>185</v>
-      </c>
-      <c r="O22" t="s">
-        <v>165</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2468,50 +2621,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11159</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2535,50 +2692,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11159</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2602,41 +2763,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11159</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -2655,7 +2820,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
